--- a/resultados/gapminder.xlsx
+++ b/resultados/gapminder.xlsx
@@ -15026,7 +15026,7 @@
         <v>9803875</v>
       </c>
       <c r="F611">
-        <v>4684.313807</v>
+        <v>4684.313807000001</v>
       </c>
     </row>
     <row r="612">
@@ -29066,7 +29066,7 @@
         <v>3366439</v>
       </c>
       <c r="F1196">
-        <v>4258.503604</v>
+        <v>4258.503604000001</v>
       </c>
     </row>
     <row r="1197">
@@ -29378,7 +29378,7 @@
         <v>20195924</v>
       </c>
       <c r="F1209">
-        <v>6360.943444</v>
+        <v>6360.943444000001</v>
       </c>
     </row>
     <row r="1210">
@@ -34274,7 +34274,7 @@
         <v>35933379</v>
       </c>
       <c r="F1413">
-        <v>7825.823398</v>
+        <v>7825.823398000001</v>
       </c>
     </row>
     <row r="1414">
